--- a/PIEEQ/file/其他/商务分析(2).xlsx
+++ b/PIEEQ/file/其他/商务分析(2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13660"/>
+    <workbookView windowWidth="27660" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>

--- a/PIEEQ/file/其他/商务分析(2).xlsx
+++ b/PIEEQ/file/其他/商务分析(2).xlsx
@@ -632,7 +632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,7 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,12 +684,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,87 +1078,87 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1194,7 +1188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,7 +1201,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,7 +1524,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1565,7 +1562,7 @@
       <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2255,10 +2252,10 @@
       <c r="F25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="16" t="s">
         <v>130</v>
       </c>
       <c r="I25" s="15" t="s">
@@ -2284,10 +2281,10 @@
       <c r="F26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I26" s="15" t="s">

--- a/PIEEQ/file/其他/商务分析(2).xlsx
+++ b/PIEEQ/file/其他/商务分析(2).xlsx
@@ -1523,8 +1523,8 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1534,7 +1534,7 @@
     <col min="6" max="6" width="22.2788461538462" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
     <col min="8" max="8" width="27.3846153846154" customWidth="1"/>
-    <col min="9" max="9" width="20.9903846153846" customWidth="1"/>
+    <col min="9" max="9" width="22.4326923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2258,7 +2258,7 @@
       <c r="H25" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="16" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="H26" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="16" t="s">
         <v>136</v>
       </c>
     </row>
